--- a/biology/Écologie/Eel/Eel.xlsx
+++ b/biology/Écologie/Eel/Eel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fleuve Eel ((en) Eel River) est un fleuve de Californie (États-Unis) long d'environ 322 kilomètres.
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fleuve Eel prend sa source au nord-est du comté de Mendocino et se dirige d'abord vers le sud-ouest puis vers l'ouest et le sud-ouest en traversant la forêt nationale Mendocino et le comté de Lake. Il se jette alors dans le lac Pilsbury un lac artificiel formé par le barrage Scott. Le fleuve retourne ensuite dans le comté de Mendocino en se dirigeant vers le nord-ouest et passe à 24 kilomètres à l'est de Willits. Il traverse alors une région isolée où il collecte les eaux des rivières Middle Fork Eel et North Fork Eel et où se trouve la réserve indienne de Round Valley. Le fleuve se dirige ensuite à travers les comtés de Trinity et Humbolt et est rejoint par la rivière South Fork Eel. Après avoir passé Rio Dell puis le confluent avec la rivière Van Duzen, le fleuve Eel traverse la zone de Fort Seward puis Fortuna pour se jeter dans l'océan Pacifique à environ 24 kilomètres au sud d'Eureka.
 </t>
@@ -543,7 +557,9 @@
           <t>Principaux aflluents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Middle Fork Eel
 North Fork Eel
@@ -576,7 +592,9 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'U.S. Route 101 et la Northwestern Pacific Railroad longe une partie du fleuve Eel.  
 </t>
@@ -607,7 +625,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fleuve Eel traverse une région sauvage propice à de nombreuses activités touristiques : pêche, canoë-kayak, camping, randonnée... 
 Grâce à tous ces activités beaucoup de personnes veulent partir pendant les vacances et voyage en famille pour voir le fleuve et ses région sauvage .
@@ -640,6 +660,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
